--- a/data/trans_camb/P1_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>0.3795871206974916</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>9.060723598707829</v>
+        <v>9.060723598707835</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-3.600201435461124</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.980425227264392</v>
+        <v>-6.079018138088156</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.952413100412635</v>
+        <v>-2.236522828195307</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.472190957501535</v>
+        <v>9.30937626110738</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.43615515185031</v>
+        <v>-7.096917266923793</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.616844605611917</v>
+        <v>-2.671003976085323</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.716178028427661</v>
+        <v>5.401598822497468</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-5.734591316883223</v>
+        <v>-5.928108533631617</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.548479716921492</v>
+        <v>-1.461303755594627</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>8.258616593537752</v>
+        <v>8.279444187627208</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.646318570021164</v>
+        <v>0.4477347590341731</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.835329309907979</v>
+        <v>4.509855234878462</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19.40036587683664</v>
+        <v>19.50671934838134</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-1.518941331283205</v>
+        <v>-1.38325444188989</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.608916807588362</v>
+        <v>3.428254663780719</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>12.66057006770004</v>
+        <v>12.62443907662393</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-1.516118540992286</v>
+        <v>-1.432792770356975</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.006522702241339</v>
+        <v>3.065280811384706</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>14.11055521655928</v>
+        <v>14.29506722436926</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.02869416753871126</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6849281937847248</v>
+        <v>0.6849281937847252</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.2899276479477088</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4299049006365103</v>
+        <v>-0.4516194315640513</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1497365079531037</v>
+        <v>-0.1718321913819288</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.6550071575119332</v>
+        <v>0.6945202155893556</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4837610168373453</v>
+        <v>-0.4729757384854194</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1715169859369583</v>
+        <v>-0.1848079642580938</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3736249882904929</v>
+        <v>0.3345558792709444</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4176853956778809</v>
+        <v>-0.4195207382023907</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1104422281923493</v>
+        <v>-0.1042795216588242</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.6097643265858307</v>
+        <v>0.6106059977390763</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.08543671713936894</v>
+        <v>0.04066296387061968</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.537471593067853</v>
+        <v>0.5027623577676231</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.077048089854187</v>
+        <v>2.0337951481156</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.1225456912112281</v>
+        <v>-0.1239567171843928</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.304950676667362</v>
+        <v>0.2904311550184843</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.074819290621374</v>
+        <v>1.062219271659425</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1346890960846308</v>
+        <v>-0.1315094721589836</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2692217773555157</v>
+        <v>0.2772160777286007</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.265444728511237</v>
+        <v>1.288881478341792</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>5.246349847879593</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>10.03558690972999</v>
+        <v>10.03558690972998</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.025823533898856</v>
+        <v>-1.907629615881991</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.097014298389551</v>
+        <v>3.901964357778391</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8.025161276806966</v>
+        <v>7.810852253840388</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9816689727433124</v>
+        <v>-0.9782606023471467</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.016067374708316</v>
+        <v>1.198961168616123</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.669664171959673</v>
+        <v>6.318221634165089</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.8749429604199906</v>
+        <v>-0.7763737785589279</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.186454421664237</v>
+        <v>3.441022167293143</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>8.220610591319694</v>
+        <v>8.237307828775652</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.416200510829449</v>
+        <v>2.65694017573923</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.360056431210909</v>
+        <v>9.410813171483253</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.00067431939788</v>
+        <v>13.59268130524939</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.002612730294275</v>
+        <v>3.919562652091954</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.696914505310934</v>
+        <v>6.548535651775921</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>11.59754862009583</v>
+        <v>11.68380525841757</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.412180978163757</v>
+        <v>2.685321521354818</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>7.043580147899507</v>
+        <v>7.278161264569599</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>11.97296234628008</v>
+        <v>11.81791131990284</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>1.078184814473323</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.772557382280015</v>
+        <v>1.772557382280016</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1700935807631772</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2880462226764565</v>
+        <v>-0.2606213293016791</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.5388757526657182</v>
+        <v>0.530113493694062</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1.069317606526192</v>
+        <v>1.081030176601088</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.09887805209618589</v>
+        <v>-0.09140266681174319</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.08921899604673808</v>
+        <v>0.118909791444288</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6587096958719829</v>
+        <v>0.6240270608089545</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1136703425621887</v>
+        <v>-0.09243195747624253</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3995690788011883</v>
+        <v>0.4052981597273477</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.996886019612213</v>
+        <v>1.002318172940344</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4679898404676124</v>
+        <v>0.5268866607716972</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.829930547201538</v>
+        <v>1.839200162283917</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.625510227741775</v>
+        <v>2.629778725372678</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5421361484921766</v>
+        <v>0.5178901946040964</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8814144806458851</v>
+        <v>0.8464591327081959</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.577420694466603</v>
+        <v>1.610891817118915</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.36122965814784</v>
+        <v>0.4019911732690329</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.048559761287059</v>
+        <v>1.092537791574201</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.784664076171085</v>
+        <v>1.812828363863945</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>5.092572786854724</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10.75456290901648</v>
+        <v>10.75456290901649</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>4.470857208432279</v>
@@ -1083,7 +1083,7 @@
         <v>6.206824649407323</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>9.134558739053988</v>
+        <v>9.134558739053992</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>3.422152365964831</v>
@@ -1092,7 +1092,7 @@
         <v>5.626326137440911</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>9.933040499011952</v>
+        <v>9.933040499011955</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.1222205022697956</v>
+        <v>0.0680415565706622</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.230863754735182</v>
+        <v>2.539074753416804</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.997472218655756</v>
+        <v>8.11072578689463</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.800954547882707</v>
+        <v>1.849418021750852</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.328829604665844</v>
+        <v>3.440534271564808</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>7.020352136184344</v>
+        <v>6.782606365828283</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.657081940353212</v>
+        <v>1.468854632719353</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.798950758496613</v>
+        <v>3.729854696512629</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>8.226514689168161</v>
+        <v>8.1840051009929</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.980641349464367</v>
+        <v>5.213268909144226</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.037823842913813</v>
+        <v>7.680778368908875</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.62984516267816</v>
+        <v>13.85548250125966</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.101488227217917</v>
+        <v>7.091459965408885</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.33585394155218</v>
+        <v>9.345781414690757</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>11.43281121777066</v>
+        <v>11.72066305083871</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.150298204879531</v>
+        <v>5.183544346983004</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>7.51883888763491</v>
+        <v>7.610090010330042</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>11.63035981806799</v>
+        <v>11.72013060911262</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>1.076061100371162</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1.583634770331401</v>
+        <v>1.583634770331402</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.5741036019079235</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.03148277916235878</v>
+        <v>0.001636884764711567</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.315647147031812</v>
+        <v>0.3435822660015023</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1.104250153048621</v>
+        <v>1.092597994105118</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.278760429038626</v>
+        <v>0.2760197317079744</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4691889679773268</v>
+        <v>0.4920613154955961</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9617517055313559</v>
+        <v>0.9539812968577985</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2503747664690142</v>
+        <v>0.2010390388542228</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.5466181927149723</v>
+        <v>0.556862752430106</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>1.197722799832705</v>
+        <v>1.201154143492621</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.931618988008892</v>
+        <v>0.991376375564317</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.539029396035112</v>
+        <v>1.48621069666285</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.803678032200562</v>
+        <v>2.76247890895183</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.529752301272659</v>
+        <v>1.526286468721072</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.979307256361058</v>
+        <v>1.972424380262433</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.52055412545865</v>
+        <v>2.541180924566359</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9907606498397118</v>
+        <v>0.9844799270622645</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.453511175358684</v>
+        <v>1.446695620262345</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.232255786680641</v>
+        <v>2.289459144338852</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1331416106046002</v>
+        <v>-0.1771588741169859</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.713234323022624</v>
+        <v>2.567448911638289</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.080429134050307</v>
+        <v>7.238903293544395</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9239592842092742</v>
+        <v>1.239756907506404</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>5.039040984812046</v>
+        <v>4.848123590756986</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.957100691389688</v>
+        <v>6.720212440763884</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.342900784884615</v>
+        <v>1.408534955180377</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>5.116865001411306</v>
+        <v>5.079615350238544</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>8.169361289631603</v>
+        <v>8.036324263857352</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.818769890087164</v>
+        <v>7.843276126733924</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.64779374793801</v>
+        <v>10.86829822731834</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.8213235510732</v>
+        <v>14.70909348974234</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.337042347700027</v>
+        <v>9.185184050572124</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>13.72679718084975</v>
+        <v>13.74785599810717</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>13.63170117446528</v>
+        <v>13.25298450917167</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.236034519048332</v>
+        <v>7.167342775154381</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>11.16172384344951</v>
+        <v>10.99606771165494</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>13.27250320618925</v>
+        <v>13.05638316892194</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.00647360678659643</v>
+        <v>-0.03169337923120862</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2682877832169911</v>
+        <v>0.2449431400810578</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.6695916475085373</v>
+        <v>0.7020874724331402</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1140933592992844</v>
+        <v>0.1543779740287363</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5141290342678319</v>
+        <v>0.5733300581382738</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7437394289207684</v>
+        <v>0.7629609755832807</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1547561577023519</v>
+        <v>0.157725238312273</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.5699842506347544</v>
+        <v>0.5969162678425322</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.9275756466657449</v>
+        <v>0.9051921646449095</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.356508129264242</v>
+        <v>1.272057796566056</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.879149176283818</v>
+        <v>1.783741102294046</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.594252806751521</v>
+        <v>2.575854897434199</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.12942539790246</v>
+        <v>2.1339864870415</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.99703152398001</v>
+        <v>3.157949597377946</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.43958623545969</v>
+        <v>3.159494148350253</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.229560013827429</v>
+        <v>1.278151222766249</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.981477752007789</v>
+        <v>2.016829196093073</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.455285157757144</v>
+        <v>2.365649128208496</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.2291645022459358</v>
+        <v>-0.2427123915515541</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.749472103242822</v>
+        <v>3.874242900794251</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9.668951396142489</v>
+        <v>9.640619575002997</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.3117075395909072</v>
+        <v>-0.2842888215329807</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.739058536057863</v>
+        <v>2.765492746221156</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>7.185980391656247</v>
+        <v>7.189255091079152</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1235466903495671</v>
+        <v>0.243695997690645</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>3.709961700642189</v>
+        <v>3.773199339615395</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>8.807578690579748</v>
+        <v>8.842646494413284</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.49795359626526</v>
+        <v>2.315633174168397</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.769658281409412</v>
+        <v>6.779357176886585</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12.9596989887823</v>
+        <v>13.00160157334062</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.621321534457409</v>
+        <v>2.607198299953859</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.068543508862671</v>
+        <v>5.912975059604098</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>10.02478852925262</v>
+        <v>9.982679038611868</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.099460126888927</v>
+        <v>2.287931259664838</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.929995281120036</v>
+        <v>5.912007412323767</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>11.05597322287423</v>
+        <v>11.0057427153647</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.03231218594311925</v>
+        <v>-0.03022085254882465</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.4839697771126394</v>
+        <v>0.4816701206551139</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>1.212527441243309</v>
+        <v>1.231507343844913</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.03596344628672178</v>
+        <v>-0.02936881099627859</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2893625583794328</v>
+        <v>0.2860608880878322</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7472015486460499</v>
+        <v>0.732726856435954</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01495497262307501</v>
+        <v>0.02914772435881127</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.437684821569282</v>
+        <v>0.4416482059056466</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1.033793248125328</v>
+        <v>1.039459523743509</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.376307691649594</v>
+        <v>0.3551242356086944</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.047626707162751</v>
+        <v>1.030265433710463</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.94739989969106</v>
+        <v>1.976920789091065</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3163950776535502</v>
+        <v>0.3194211981774711</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7456220370271285</v>
+        <v>0.7352042849808776</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.245269789742507</v>
+        <v>1.228620059302296</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2794421109401022</v>
+        <v>0.3094852266144977</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.7960246446889236</v>
+        <v>0.7776855239143617</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.478557904590858</v>
+        <v>1.472509348761895</v>
       </c>
     </row>
     <row r="34">
